--- a/Documentation/MoPlusIdeasToTasks.xlsx
+++ b/Documentation/MoPlusIdeasToTasks.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OpenSource\MoPlus\Documentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="13350"/>
   </bookViews>
@@ -46,9 +51,6 @@
   </si>
   <si>
     <t>Matthijs</t>
-  </si>
-  <si>
-    <t>Need clarification and example, is this at a project level?</t>
   </si>
   <si>
     <t>I think you should put the MoPlus model database in git, as an sql localdb database. Although I think a forward engineered model would be better, as that’s mergable.</t>
@@ -138,15 +140,9 @@
     <t>Easier way to do reordering. Wanting to place a new item on the top now, means having to reorder all items (or set an order which allows inserting, but also has its weaknesses)</t>
   </si>
   <si>
-    <t>Propose scheme.</t>
-  </si>
-  <si>
     <t>Why are all projects set to platform x86 instead of AnyCPU? I definitely would advise (at least for now) to run in 32bit mode, but that’s done using targeting x86 in the .exe project. Imo the rest should set to anycpu, to allow easier changing later on.</t>
   </si>
   <si>
-    <t>Needed to set projects to x86 for VSPackage installation, can revisit if there is another way to be able to install VSPackage.</t>
-  </si>
-  <si>
     <t>I have the impression things are not separated nicely: I think too much is done in the views. (And I don’t like the views instantiating the viewmodels). Being strict here makes it easy to do testing later on. Not just functional testing but also performance and memory testing.</t>
   </si>
   <si>
@@ -156,9 +152,6 @@
     <t>Solution seems to contain the full path to the template instead of a relative one. (I couldn’t just open the MoPlus.xml solution)</t>
   </si>
   <si>
-    <t>Intent is for template libraries to be shared across projects, not sure of additional overall benefits of relative path to templates.  Should be revisited when overall template management workflow is overhauled.</t>
-  </si>
-  <si>
     <t>After copying the MoPlus_Only templates to c:\.. folder, it opened the solution, but still gave an error. After that I copied the sample pack to C: as well, and I closed the solution and opened it again. Then it didn’t show the solution node.</t>
   </si>
   <si>
@@ -171,9 +164,6 @@
     <t>Interpreter</t>
   </si>
   <si>
-    <t>This is due to large forward engineering model.  Serialization based loader doesn’t report progress, whereas spec templates do report progress.  Probably wait for other overall workflow changes which may change the loading process altogether.</t>
-  </si>
-  <si>
     <t>When adding new toplevel templates, you cannot use them right-away in projects. You need to reopen the solution</t>
   </si>
   <si>
@@ -183,9 +173,6 @@
     <t>It seems code templates need to have unique names currently (weird things happen if you use names double). It seems more logical to me when names need to be unique per category.</t>
   </si>
   <si>
-    <t>Address error messaging, unique based on name/node needs to remain until future workflow/language changes.</t>
-  </si>
-  <si>
     <t>Template path solution property doesn’t really seem to work: my templates are being saved in the solution directory (Project subdirectory)</t>
   </si>
   <si>
@@ -225,9 +212,6 @@
     <t>MSSQL server database names can contain &amp; signs, but mo+ thinks it’s prohibited.</t>
   </si>
   <si>
-    <t>I made some validation changes for database names, verify if any additional changes are required.</t>
-  </si>
-  <si>
     <t>Improving Mo+ architecture for testability</t>
   </si>
   <si>
@@ -334,13 +318,125 @@
   </si>
   <si>
     <t>http://msdn.microsoft.com/en-us/library/exczf7b9.aspx</t>
+  </si>
+  <si>
+    <r>
+      <t>I made some validation changes for database names, verify if any additional changes are required.</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> M: I wouldn't do any functional validation (besides possible storage limitations like max length). If users mistype, they get a provider error DB NOT FOUND. ie, dont invest in redundant checks</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Address error messaging, unique based on name/node needs to remain until future workflow/language changes. </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M: I understand the reasoning why they need to be unique, but it should prevent me from adding a second one with a duplicate name then</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This is due to large forward engineering model.  Serialization based loader doesn’t report progress, whereas spec templates do report progress.  Probably wait for other overall workflow changes which may change the loading process altogether. </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M: at some point I'd personally go for handwritten serialization (or self-generated based on reflection information)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Intent is for template libraries to be shared across projects, not sure of additional overall benefits of relative path to templates.  Should be revisited when overall template management workflow is overhauled. </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Of course templates should be shared. But think of Nuget: "relative" paths, but locally contained shared stuff. that way the projects' dependencies are locally managed.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Needed to set projects to x86 for VSPackage installation, can revisit if there is another way to be able to install VSPackage. </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Will verify in Cosmos. IIRC we only set entrypoint assemblies (the ones registered to VS) to x86.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Propose scheme.</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Once we have a "bulk-insert" thing, we can do "move-up" "move-down" buttons thingy (See #7)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Need clarification and example, is this at a project level? </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Perfect sample is this excel sheet. It's mixed in with the source folders. I always have a Sources folder in the root, Dependencies, Resources, Documentation (all optional). I'd then put this spreadheet in documentation, as well as any articles, user guides, etc.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -361,6 +457,14 @@
       <color theme="1"/>
       <name val="Wingdings"/>
       <charset val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -383,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -397,24 +501,90 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:G42" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A1:G42"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="ID" dataDxfId="8"/>
+    <tableColumn id="2" name="Idea" dataDxfId="7"/>
+    <tableColumn id="3" name="Type" dataDxfId="6"/>
+    <tableColumn id="4" name="Component" dataDxfId="5"/>
+    <tableColumn id="5" name="Projected Release" dataDxfId="4"/>
+    <tableColumn id="6" name="Who will lead next steps" dataDxfId="3"/>
+    <tableColumn id="7" name="Comments" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -452,9 +622,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -489,7 +659,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -524,7 +694,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -700,25 +870,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="1" max="1" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44.5703125" style="2" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="27.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="4"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="5" max="5" width="10.140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="123.7109375" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -759,30 +929,30 @@
         <v>9</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -790,7 +960,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
@@ -799,7 +969,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>9</v>
@@ -810,7 +980,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
@@ -819,7 +989,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>9</v>
@@ -830,7 +1000,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
@@ -839,7 +1009,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>9</v>
@@ -850,22 +1020,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -873,22 +1043,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E8" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -896,22 +1066,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E9" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -919,22 +1089,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E10" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -942,22 +1112,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E11" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -965,7 +1135,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>7</v>
@@ -974,13 +1144,13 @@
         <v>8</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -988,7 +1158,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>7</v>
@@ -997,13 +1167,13 @@
         <v>8</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1011,22 +1181,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -1034,22 +1204,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E15" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1057,22 +1227,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1080,22 +1250,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E17" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1103,22 +1273,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E18" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1126,22 +1296,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E19" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1149,19 +1319,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E20" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -1169,22 +1339,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1192,22 +1362,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E22" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1215,22 +1385,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1238,45 +1408,45 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E25" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>62</v>
+      <c r="G25" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1284,22 +1454,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1307,22 +1477,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1330,22 +1500,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1353,22 +1523,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1376,22 +1546,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1399,22 +1569,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1422,22 +1592,22 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E32" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1445,22 +1615,22 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E33" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1468,22 +1638,22 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E34" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1491,22 +1661,22 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1514,22 +1684,22 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1537,7 +1707,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>7</v>
@@ -1546,13 +1716,13 @@
         <v>8</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1560,7 +1730,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>7</v>
@@ -1569,10 +1739,10 @@
         <v>8</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1580,19 +1750,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1600,22 +1770,22 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1623,22 +1793,22 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1646,27 +1816,30 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/Documentation/MoPlusIdeasToTasks.xlsx
+++ b/Documentation/MoPlusIdeasToTasks.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OpenSource\MoPlus\Documentation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="13350"/>
   </bookViews>
@@ -321,6 +316,47 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Need clarification and example, is this at a project level? Perfect sample is this excel sheet. It's mixed in with the source folders. I always have a Sources folder in the root, Dependencies, Resources, Documentation (all optional). I'd then put this spreadheet in documentation, as well as any articles, user guides, etc.  </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Can move source code (and Mo+ specific templates) into a SourceCode folder, is there an easy way to perform a move in tfs?</t>
+    </r>
+  </si>
+  <si>
+    <t>Needed to set projects to x86 for VSPackage installation, can revisit if there is another way to be able to install VSPackage. Will verify in Cosmos. IIRC we only set entrypoint assemblies (the ones registered to VS) to x86.</t>
+  </si>
+  <si>
+    <t>Intent is for template libraries to be shared across projects, not sure of additional overall benefits of relative path to templates.  Should be revisited when overall template management workflow is overhauled. Of course templates should be shared. But think of Nuget: "relative" paths, but locally contained shared stuff. that way the projects' dependencies are locally managed.</t>
+  </si>
+  <si>
+    <t>This is due to large forward engineering model.  Serialization based loader doesn’t report progress, whereas spec templates do report progress.  Probably wait for other overall workflow changes which may change the loading process altogether. M: at some point I'd personally go for handwritten serialization (or self-generated based on reflection information)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Address error messaging, unique based on name/node needs to remain until future workflow/language changes. M: I understand the reasoning why they need to be unique, but it should prevent me from adding a second one with a duplicate name then </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D: agree that tool should prevent template collisions.</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>I made some validation changes for database names, verify if any additional changes are required.</t>
     </r>
     <r>
@@ -332,104 +368,21 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> M: I wouldn't do any functional validation (besides possible storage limitations like max length). If users mistype, they get a provider error DB NOT FOUND. ie, dont invest in redundant checks</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Address error messaging, unique based on name/node needs to remain until future workflow/language changes. </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <u/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>M: I understand the reasoning why they need to be unique, but it should prevent me from adding a second one with a duplicate name then</t>
+      <t>M: I wouldn't do any functional validation (besides possible storage limitations like max length). If users mistype, they get a provider error DB NOT FOUND. ie, dont invest in redundant checks</t>
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">This is due to large forward engineering model.  Serialization based loader doesn’t report progress, whereas spec templates do report progress.  Probably wait for other overall workflow changes which may change the loading process altogether. </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>M: at some point I'd personally go for handwritten serialization (or self-generated based on reflection information)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Intent is for template libraries to be shared across projects, not sure of additional overall benefits of relative path to templates.  Should be revisited when overall template management workflow is overhauled. </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Of course templates should be shared. But think of Nuget: "relative" paths, but locally contained shared stuff. that way the projects' dependencies are locally managed.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Needed to set projects to x86 for VSPackage installation, can revisit if there is another way to be able to install VSPackage. </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Will verify in Cosmos. IIRC we only set entrypoint assemblies (the ones registered to VS) to x86.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Propose scheme.</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Once we have a "bulk-insert" thing, we can do "move-up" "move-down" buttons thingy (See #7)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Need clarification and example, is this at a project level? </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Perfect sample is this excel sheet. It's mixed in with the source folders. I always have a Sources folder in the root, Dependencies, Resources, Documentation (all optional). I'd then put this spreadheet in documentation, as well as any articles, user guides, etc.</t>
-    </r>
+    <t>Propose scheme. Once we have a "bulk-insert" thing, we can do "move-up" "move-down" buttons thingy (See #7)</t>
   </si>
 </sst>
 </file>
@@ -506,30 +459,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -552,6 +484,27 @@
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -566,25 +519,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:G42" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:G42" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:G42"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="ID" dataDxfId="8"/>
-    <tableColumn id="2" name="Idea" dataDxfId="7"/>
-    <tableColumn id="3" name="Type" dataDxfId="6"/>
-    <tableColumn id="4" name="Component" dataDxfId="5"/>
-    <tableColumn id="5" name="Projected Release" dataDxfId="4"/>
-    <tableColumn id="6" name="Who will lead next steps" dataDxfId="3"/>
-    <tableColumn id="7" name="Comments" dataDxfId="2"/>
+    <tableColumn id="1" name="ID" dataDxfId="6"/>
+    <tableColumn id="2" name="Idea" dataDxfId="5"/>
+    <tableColumn id="3" name="Type" dataDxfId="4"/>
+    <tableColumn id="4" name="Component" dataDxfId="3"/>
+    <tableColumn id="5" name="Projected Release" dataDxfId="2"/>
+    <tableColumn id="6" name="Who will lead next steps" dataDxfId="1"/>
+    <tableColumn id="7" name="Comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -622,9 +575,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -659,7 +612,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -694,7 +647,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -871,7 +824,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,7 +882,7 @@
         <v>9</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1127,7 +1080,7 @@
         <v>9</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -1150,7 +1103,7 @@
         <v>9</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -1196,7 +1149,7 @@
         <v>17</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -1242,7 +1195,7 @@
         <v>17</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1288,7 +1241,7 @@
         <v>17</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1446,7 +1399,7 @@
         <v>9</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">

--- a/Documentation/MoPlusIdeasToTasks.xlsx
+++ b/Documentation/MoPlusIdeasToTasks.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OpenSource\MoPlus\Documentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="13350"/>
   </bookViews>
@@ -312,25 +317,6 @@
     <t>Dynamic methods for performance improvement.</t>
   </si>
   <si>
-    <t>http://msdn.microsoft.com/en-us/library/exczf7b9.aspx</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Need clarification and example, is this at a project level? Perfect sample is this excel sheet. It's mixed in with the source folders. I always have a Sources folder in the root, Dependencies, Resources, Documentation (all optional). I'd then put this spreadheet in documentation, as well as any articles, user guides, etc.  </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Can move source code (and Mo+ specific templates) into a SourceCode folder, is there an easy way to perform a move in tfs?</t>
-    </r>
-  </si>
-  <si>
     <t>Needed to set projects to x86 for VSPackage installation, can revisit if there is another way to be able to install VSPackage. Will verify in Cosmos. IIRC we only set entrypoint assemblies (the ones registered to VS) to x86.</t>
   </si>
   <si>
@@ -338,22 +324,6 @@
   </si>
   <si>
     <t>This is due to large forward engineering model.  Serialization based loader doesn’t report progress, whereas spec templates do report progress.  Probably wait for other overall workflow changes which may change the loading process altogether. M: at some point I'd personally go for handwritten serialization (or self-generated based on reflection information)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Address error messaging, unique based on name/node needs to remain until future workflow/language changes. M: I understand the reasoning why they need to be unique, but it should prevent me from adding a second one with a duplicate name then </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D: agree that tool should prevent template collisions.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -383,6 +353,41 @@
   </si>
   <si>
     <t>Propose scheme. Once we have a "bulk-insert" thing, we can do "move-up" "move-down" buttons thingy (See #7)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Need clarification and example, is this at a project level? Perfect sample is this excel sheet. It's mixed in with the source folders. I always have a Sources folder in the root, Dependencies, Resources, Documentation (all optional). I'd then put this spreadheet in documentation, as well as any articles, user guides, etc.  Can move source code (and Mo+ specific templates) into a SourceCode folder, is there an easy way to perform a move in tfs? </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>It's git specific now. best way to go is unbind the solution and projects from within vs. then do a git file move (not exactly sure how), and bind the projects again</t>
+    </r>
+  </si>
+  <si>
+    <t>Address error messaging, unique based on name/node needs to remain until future workflow/language changes. M: I understand the reasoning why they need to be unique, but it should prevent me from adding a second one with a duplicate name then. Agree that tool should prevent template collisions.</t>
+  </si>
+  <si>
+    <r>
+      <t>See http://msdn.microsoft.com/en-us/library/exczf7b9.aspx.</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I'd seriously wait till we get a 60-80% test coverage, because making simple dynamic methods is doable, but the mo+ language is quite complex, so emitting dynamic methods for them is even more complex. Maybe we should use the command line solutionbuilder thing to do the template work? (update solution, update specification, etc) That way, we could just emit c# code and compile it at runtime. That would be much easier.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -459,7 +464,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -535,9 +540,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -575,9 +580,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -612,7 +617,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -647,7 +652,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -823,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,7 +887,7 @@
         <v>9</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1080,7 +1085,7 @@
         <v>9</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -1103,7 +1108,7 @@
         <v>9</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -1149,7 +1154,7 @@
         <v>17</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -1195,7 +1200,7 @@
         <v>17</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1241,7 +1246,7 @@
         <v>17</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1399,7 +1404,7 @@
         <v>9</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1764,7 +1769,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -1784,7 +1789,7 @@
         <v>17</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/MoPlusIdeasToTasks.xlsx
+++ b/Documentation/MoPlusIdeasToTasks.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="100">
   <si>
     <t>Idea</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>Comments</t>
-  </si>
-  <si>
-    <t>Put all sources (current files) in a top-level folder named Code or Sources, all dependencies in a top-level Dependencies or Resources. This gives you room to make more logical division of fil</t>
   </si>
   <si>
     <t>Technical</t>
@@ -388,6 +385,12 @@
       </rPr>
       <t xml:space="preserve"> I'd seriously wait till we get a 60-80% test coverage, because making simple dynamic methods is doable, but the mo+ language is quite complex, so emitting dynamic methods for them is even more complex. Maybe we should use the command line solutionbuilder thing to do the template work? (update solution, update specification, etc) That way, we could just emit c# code and compile it at runtime. That would be much easier.</t>
     </r>
+  </si>
+  <si>
+    <t>Put all sources (current files) in a top-level folder named Code or Sources, all dependencies in a top-level Dependencies or Resources. This gives you room to make more logical division of files</t>
+  </si>
+  <si>
+    <t>Mostly done already. Did a find and replace.</t>
   </si>
 </sst>
 </file>
@@ -445,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -460,6 +463,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -828,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,7 +852,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -872,22 +878,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="E2" s="4">
         <v>1.1000000000000001</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -895,22 +901,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -918,19 +924,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>9</v>
+      <c r="G4" s="6" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -938,19 +947,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -958,19 +967,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="210" x14ac:dyDescent="0.25">
@@ -978,22 +987,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -1001,22 +1010,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="E8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -1024,22 +1033,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -1047,22 +1056,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1070,22 +1079,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="E11" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -1093,22 +1102,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="G12" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -1116,22 +1125,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1139,22 +1148,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -1162,22 +1171,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1185,22 +1194,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="E16" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1208,22 +1217,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1231,22 +1240,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="E18" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1254,22 +1263,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1277,19 +1286,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="E20" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -1297,22 +1306,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1320,22 +1329,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1343,22 +1352,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1366,22 +1375,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1389,22 +1398,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="E25" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1412,22 +1421,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1435,22 +1444,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1458,22 +1467,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1481,22 +1490,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1504,22 +1513,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1527,22 +1536,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1550,22 +1559,22 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1573,22 +1582,22 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1596,22 +1605,22 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" s="4" t="s">
+      <c r="F34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1619,22 +1628,22 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E35" s="4" t="s">
+      <c r="F35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1642,22 +1651,22 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" s="2" t="s">
+      <c r="E36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1665,22 +1674,22 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="E37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="G37" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1688,19 +1697,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="E38" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1708,19 +1717,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1728,22 +1737,22 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1751,22 +1760,22 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1774,22 +1783,22 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/MoPlusIdeasToTasks.xlsx
+++ b/Documentation/MoPlusIdeasToTasks.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OpenSource\MoPlus\Documentation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="13350"/>
   </bookViews>
@@ -300,9 +295,6 @@
   </si>
   <si>
     <t>Installation</t>
-  </si>
-  <si>
-    <t>May have questions. :-)</t>
   </si>
   <si>
     <t>Support VS2012 (InnoSetup installers)</t>
@@ -355,39 +347,16 @@
     <t>Propose scheme. Once we have a "bulk-insert" thing, we can do "move-up" "move-down" buttons thingy (See #7)</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Need clarification and example, is this at a project level? Perfect sample is this excel sheet. It's mixed in with the source folders. I always have a Sources folder in the root, Dependencies, Resources, Documentation (all optional). I'd then put this spreadheet in documentation, as well as any articles, user guides, etc.  Can move source code (and Mo+ specific templates) into a SourceCode folder, is there an easy way to perform a move in tfs? </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>It's git specific now. best way to go is unbind the solution and projects from within vs. then do a git file move (not exactly sure how), and bind the projects again</t>
-    </r>
-  </si>
-  <si>
     <t>Address error messaging, unique based on name/node needs to remain until future workflow/language changes. M: I understand the reasoning why they need to be unique, but it should prevent me from adding a second one with a duplicate name then. Agree that tool should prevent template collisions.</t>
   </si>
   <si>
-    <r>
-      <t>See http://msdn.microsoft.com/en-us/library/exczf7b9.aspx.</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I'd seriously wait till we get a 60-80% test coverage, because making simple dynamic methods is doable, but the mo+ language is quite complex, so emitting dynamic methods for them is even more complex. Maybe we should use the command line solutionbuilder thing to do the template work? (update solution, update specification, etc) That way, we could just emit c# code and compile it at runtime. That would be much easier.</t>
-    </r>
+    <t>Draft completed, needs review and more testing.</t>
+  </si>
+  <si>
+    <t>See http://msdn.microsoft.com/en-us/library/exczf7b9.aspx. I'd seriously wait till we get a 60-80% test coverage, because making simple dynamic methods is doable, but the mo+ language is quite complex, so emitting dynamic methods for them is even more complex. Maybe we should use the command line solutionbuilder thing to do the template work? (update solution, update specification, etc) That way, we could just emit c# code and compile it at runtime. That would be much easier.</t>
+  </si>
+  <si>
+    <t>Need clarification and example, is this at a project level? Perfect sample is this excel sheet. It's mixed in with the source folders. I always have a Sources folder in the root, Dependencies, Resources, Documentation (all optional). I'd then put this spreadheet in documentation, as well as any articles, user guides, etc.  Can move source code (and Mo+ specific templates) into a SourceCode folder, is there an easy way to perform a move in tfs? It's git specific now. best way to go is unbind the solution and projects from within vs. then do a git file move (not exactly sure how), and bind the projects again</t>
   </si>
 </sst>
 </file>
@@ -464,7 +433,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -540,9 +509,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -580,9 +549,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -617,7 +586,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -652,7 +621,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -828,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,7 +856,7 @@
         <v>9</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1085,7 +1054,7 @@
         <v>9</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -1108,7 +1077,7 @@
         <v>9</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -1154,7 +1123,7 @@
         <v>17</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -1200,7 +1169,7 @@
         <v>17</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1246,7 +1215,7 @@
         <v>17</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1404,7 +1373,7 @@
         <v>9</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1728,7 +1697,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>20</v>
@@ -1743,7 +1712,7 @@
         <v>17</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1751,7 +1720,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>20</v>
@@ -1766,7 +1735,7 @@
         <v>17</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1774,7 +1743,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>20</v>
@@ -1789,7 +1758,7 @@
         <v>17</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/MoPlusIdeasToTasks.xlsx
+++ b/Documentation/MoPlusIdeasToTasks.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OpenSource\MoPlus\Documentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="13350"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="100">
   <si>
     <t>Idea</t>
   </si>
@@ -318,32 +323,6 @@
     <t>This is due to large forward engineering model.  Serialization based loader doesn’t report progress, whereas spec templates do report progress.  Probably wait for other overall workflow changes which may change the loading process altogether. M: at some point I'd personally go for handwritten serialization (or self-generated based on reflection information)</t>
   </si>
   <si>
-    <r>
-      <t>I made some validation changes for database names, verify if any additional changes are required.</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>M: I wouldn't do any functional validation (besides possible storage limitations like max length). If users mistype, they get a provider error DB NOT FOUND. ie, dont invest in redundant checks</t>
-    </r>
-  </si>
-  <si>
     <t>Propose scheme. Once we have a "bulk-insert" thing, we can do "move-up" "move-down" buttons thingy (See #7)</t>
   </si>
   <si>
@@ -357,6 +336,12 @@
   </si>
   <si>
     <t>Need clarification and example, is this at a project level? Perfect sample is this excel sheet. It's mixed in with the source folders. I always have a Sources folder in the root, Dependencies, Resources, Documentation (all optional). I'd then put this spreadheet in documentation, as well as any articles, user guides, etc.  Can move source code (and Mo+ specific templates) into a SourceCode folder, is there an easy way to perform a move in tfs? It's git specific now. best way to go is unbind the solution and projects from within vs. then do a git file move (not exactly sure how), and bind the projects again</t>
+  </si>
+  <si>
+    <t>Mostly done already. Did a find and replace.</t>
+  </si>
+  <si>
+    <t>I made some validation changes for database names, verify if any additional changes are required. M: I wouldn't do any functional validation (besides possible storage limitations like max length). If users mistype, they get a provider error DB NOT FOUND. ie, dont invest in redundant checks</t>
   </si>
 </sst>
 </file>
@@ -414,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -431,9 +416,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -509,9 +497,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -549,9 +537,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -586,7 +574,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -621,7 +609,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -797,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,7 +844,7 @@
         <v>9</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -901,6 +889,9 @@
       <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="G4" s="6" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -1054,7 +1045,7 @@
         <v>9</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -1215,7 +1206,7 @@
         <v>17</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1373,7 +1364,7 @@
         <v>9</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1712,7 +1703,7 @@
         <v>17</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1758,7 +1749,7 @@
         <v>17</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/MoPlusIdeasToTasks.xlsx
+++ b/Documentation/MoPlusIdeasToTasks.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OpenSource\MoPlus\Documentation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="13350"/>
   </bookViews>
@@ -338,10 +333,30 @@
     <t>Need clarification and example, is this at a project level? Perfect sample is this excel sheet. It's mixed in with the source folders. I always have a Sources folder in the root, Dependencies, Resources, Documentation (all optional). I'd then put this spreadheet in documentation, as well as any articles, user guides, etc.  Can move source code (and Mo+ specific templates) into a SourceCode folder, is there an easy way to perform a move in tfs? It's git specific now. best way to go is unbind the solution and projects from within vs. then do a git file move (not exactly sure how), and bind the projects again</t>
   </si>
   <si>
-    <t>Mostly done already. Did a find and replace.</t>
-  </si>
-  <si>
     <t>I made some validation changes for database names, verify if any additional changes are required. M: I wouldn't do any functional validation (besides possible storage limitations like max length). If users mistype, they get a provider error DB NOT FOUND. ie, dont invest in redundant checks</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Mostly done already. Did a find and replace. </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Updated some templates accordingly.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -421,7 +436,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -497,9 +512,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -537,9 +552,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -574,7 +589,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -609,7 +624,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -785,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,7 +905,7 @@
         <v>9</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1364,7 +1379,7 @@
         <v>9</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">

--- a/Documentation/MoPlusIdeasToTasks.xlsx
+++ b/Documentation/MoPlusIdeasToTasks.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OpenSource\MoPlus\Documentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="13350"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="104">
   <si>
     <t>Idea</t>
   </si>
@@ -336,27 +341,19 @@
     <t>I made some validation changes for database names, verify if any additional changes are required. M: I wouldn't do any functional validation (besides possible storage limitations like max length). If users mistype, they get a provider error DB NOT FOUND. ie, dont invest in redundant checks</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Mostly done already. Did a find and replace. </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Updated some templates accordingly.</t>
-    </r>
+    <t>Mostly done already. Did a find and replace. Updated some templates accordingly.</t>
+  </si>
+  <si>
+    <t>Enhanced custom model support - Templates</t>
+  </si>
+  <si>
+    <t>Based on the custom model stuff created by spec templates, it should be possible to dynamically adjust the parser and interpreter to allow (much) easier use of custom models. The information is there. Maybe Irony already supports this? If so, it shouldn't be too hard (I think?)</t>
+  </si>
+  <si>
+    <t>Somehow make it easier to edit custom models. (Both creating custom model structures, as filling/editing instances of those structures)</t>
+  </si>
+  <si>
+    <t>Enhanced custom model support - Edit models/instances</t>
   </si>
 </sst>
 </file>
@@ -496,8 +493,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:G42" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G42"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:G44" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G44"/>
   <tableColumns count="7">
     <tableColumn id="1" name="ID" dataDxfId="6"/>
     <tableColumn id="2" name="Idea" dataDxfId="5"/>
@@ -554,7 +551,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -589,7 +586,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -798,10 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,7 +901,7 @@
       <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1765,6 +1762,28 @@
       </c>
       <c r="G42" s="2" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/MoPlusIdeasToTasks.xlsx
+++ b/Documentation/MoPlusIdeasToTasks.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OpenSource\MoPlus\Documentation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="13350"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="108">
   <si>
     <t>Idea</t>
   </si>
@@ -347,13 +342,58 @@
     <t>Enhanced custom model support - Templates</t>
   </si>
   <si>
-    <t>Based on the custom model stuff created by spec templates, it should be possible to dynamically adjust the parser and interpreter to allow (much) easier use of custom models. The information is there. Maybe Irony already supports this? If so, it shouldn't be too hard (I think?)</t>
-  </si>
-  <si>
-    <t>Somehow make it easier to edit custom models. (Both creating custom model structures, as filling/editing instances of those structures)</t>
-  </si>
-  <si>
     <t>Enhanced custom model support - Edit models/instances</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Based on the custom model stuff created by spec templates, it should be possible to dynamically adjust the parser and interpreter to allow (much) easier use of custom models. The information is there. Maybe Irony already supports this? If so, it shouldn't be too hard (I think?) </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>This is a whopper, and should be broken down.  I think the real improvement will be from adding a new stage in the workflow, with model structure loading being the first one, with specific supporting grammars and some way to trigger loading compatible template libraries.  If desired, we can do an interim fix in 1.0 to add the newly inserted custom elements into the language and being able to do statements on them.  You won't see syntax recognition in spec templates until the model is loaded with this interim fix.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Somehow make it easier to edit custom models. (Both creating custom model structures, as filling/editing instances of those structures).  </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Current abstract UI for custom model structures is a first step in this direction, and behaves like editing built in model structures, but with a bit more rudimentary presentation.  If there are some quicker fixes to the UI, add a line item for that, otherwise a truly improves UI will likely be based on workflow improvements (in item 42).</t>
+    </r>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>In Progress</t>
   </si>
 </sst>
 </file>
@@ -435,7 +475,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -493,16 +536,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:G44" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G44"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="ID" dataDxfId="6"/>
-    <tableColumn id="2" name="Idea" dataDxfId="5"/>
-    <tableColumn id="3" name="Type" dataDxfId="4"/>
-    <tableColumn id="4" name="Component" dataDxfId="3"/>
-    <tableColumn id="5" name="Projected Release" dataDxfId="2"/>
-    <tableColumn id="6" name="Who will lead next steps" dataDxfId="1"/>
-    <tableColumn id="7" name="Comments" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:H44" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H44"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="ID" dataDxfId="7"/>
+    <tableColumn id="2" name="Idea" dataDxfId="6"/>
+    <tableColumn id="3" name="Type" dataDxfId="5"/>
+    <tableColumn id="4" name="Component" dataDxfId="4"/>
+    <tableColumn id="5" name="Projected Release" dataDxfId="3"/>
+    <tableColumn id="6" name="Who will lead next steps" dataDxfId="2"/>
+    <tableColumn id="8" name="Status" dataDxfId="0"/>
+    <tableColumn id="7" name="Comments" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -551,7 +595,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -586,7 +630,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -795,10 +839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,11 +853,13 @@
     <col min="4" max="4" width="27.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.140625" style="4" customWidth="1"/>
     <col min="6" max="6" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="123.7109375" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="7" max="7" width="25.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="123.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -832,11 +878,15 @@
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -849,17 +899,20 @@
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4">
-        <v>1.1000000000000001</v>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -878,11 +931,14 @@
       <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -901,11 +957,14 @@
       <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -924,8 +983,11 @@
       <c r="F5" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="G5" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -944,8 +1006,11 @@
       <c r="F6" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+      <c r="G6" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -964,11 +1029,14 @@
       <c r="F7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -987,11 +1055,14 @@
       <c r="F8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1010,11 +1081,14 @@
       <c r="F9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1033,11 +1107,14 @@
       <c r="F10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1056,11 +1133,14 @@
       <c r="F11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1079,11 +1159,14 @@
       <c r="F12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1102,11 +1185,14 @@
       <c r="F13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1125,11 +1211,14 @@
       <c r="F14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1148,11 +1237,14 @@
       <c r="F15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1171,11 +1263,14 @@
       <c r="F16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1194,11 +1289,14 @@
       <c r="F17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H17" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1217,11 +1315,14 @@
       <c r="F18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1240,11 +1341,14 @@
       <c r="F19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H19" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1263,8 +1367,11 @@
       <c r="F20" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="G20" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1283,11 +1390,14 @@
       <c r="F21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1306,11 +1416,14 @@
       <c r="F22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1329,11 +1442,14 @@
       <c r="F23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1352,11 +1468,14 @@
       <c r="F24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1375,11 +1494,14 @@
       <c r="F25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H25" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1398,11 +1520,14 @@
       <c r="F26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1421,11 +1546,14 @@
       <c r="F27" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1444,11 +1572,14 @@
       <c r="F28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1467,11 +1598,14 @@
       <c r="F29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1490,11 +1624,14 @@
       <c r="F30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1513,11 +1650,14 @@
       <c r="F31" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1536,11 +1676,14 @@
       <c r="F32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1559,11 +1702,14 @@
       <c r="F33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G33" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1582,11 +1728,14 @@
       <c r="F34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G34" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1605,11 +1754,14 @@
       <c r="F35" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -1628,11 +1780,14 @@
       <c r="F36" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -1651,11 +1806,14 @@
       <c r="F37" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G37" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H37" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -1674,8 +1832,11 @@
       <c r="F38" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G38" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -1694,8 +1855,11 @@
       <c r="F39" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G39" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -1714,11 +1878,14 @@
       <c r="F40" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G40" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H40" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -1737,11 +1904,14 @@
       <c r="F41" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G41" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H41" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -1760,30 +1930,63 @@
       <c r="F42" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="G42" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H42" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G43" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H44" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
